--- a/設計/ワイヤーフレーム.xlsx
+++ b/設計/ワイヤーフレーム.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030818\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC7EBBB-C627-452A-BB4C-33B7E6DCDAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA4B22E-7DAE-42A1-9CE6-8DB09A56E22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="11385" windowHeight="10905" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>フリマサイト『谷畑屋』</t>
     <rPh sb="7" eb="9">
@@ -344,6 +344,10 @@
     <rPh sb="0" eb="2">
       <t>コウニュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,10 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,9 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -527,11 +525,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3872,20 +3870,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3917,10 +3912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003CC554-43DD-4508-9379-149A6FD8B818}">
-  <dimension ref="B1:AF34"/>
+  <dimension ref="B1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3932,7 +3927,7 @@
     <col min="30" max="30" width="7.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -3943,12 +3938,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -3962,27 +3957,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -3992,46 +3985,32 @@
       <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="11" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="AD5" s="6"/>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="AD6" s="6"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
@@ -4040,218 +4019,101 @@
       <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="AB9" s="12" t="s">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AB9" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="AB10" s="12" t="s">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AB10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="AB11" s="12" t="s">
+      <c r="AB11" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="AB12" s="12" t="s">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="N13" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="AB13" s="12" t="s">
+      <c r="AB13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="N14" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="AB14" s="12" t="s">
+      <c r="AB14" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="K20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="V21" s="1"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>21</v>
       </c>
@@ -4262,59 +4124,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="S25" s="1" t="s">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="S25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="S26" s="1" t="s">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="S26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="S27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="S28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -4322,8 +4173,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="D32" s="1" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
@@ -4331,7 +4182,7 @@
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">

--- a/設計/ワイヤーフレーム.xlsx
+++ b/設計/ワイヤーフレーム.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030818\Documents\GitHub\Tanihataya\設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA4B22E-7DAE-42A1-9CE6-8DB09A56E22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7226A8-71CD-454C-9486-D077F35AD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>フリマサイト『谷畑屋』</t>
     <rPh sb="7" eb="9">
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リスト表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -347,7 +343,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
+    <t>谷畑屋</t>
+    <rPh sb="0" eb="3">
+      <t>タニハタヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,8 +527,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3915,7 +3917,7 @@
   <dimension ref="B1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3972,7 +3974,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.4">
@@ -3987,10 +3989,15 @@
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.4">
@@ -4004,6 +4011,11 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.4">
@@ -4027,7 +4039,7 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.4">
@@ -4037,12 +4049,12 @@
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.4">
@@ -4056,15 +4068,12 @@
         <v>35</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
       <c r="AB12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.4">
@@ -4086,7 +4095,7 @@
         <v>22</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">

--- a/設計/ワイヤーフレーム.xlsx
+++ b/設計/ワイヤーフレーム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7226A8-71CD-454C-9486-D077F35AD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D705875-9CE5-4331-9074-339D3C9E0E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
+    <workbookView xWindow="390" yWindow="300" windowWidth="14655" windowHeight="10545" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>フリマサイト『谷畑屋』</t>
     <rPh sb="7" eb="9">
@@ -149,13 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン後/login</t>
-    <rPh sb="4" eb="5">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル/title</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -300,13 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品一覧/Product ListPage</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヘッダー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -346,6 +332,31 @@
     <t>谷畑屋</t>
     <rPh sb="0" eb="3">
       <t>タニハタヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧/products</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後/</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集時はPOST</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンシュウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,11 +538,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,22 +563,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202C6297-E181-8D40-395E-AA273D8496AE}"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CB5616-B46F-4A89-AC3A-5DD0ADA328FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,8 +586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619126" y="238125"/>
-          <a:ext cx="2095500" cy="1781175"/>
+          <a:off x="582706" y="2598084"/>
+          <a:ext cx="2100543" cy="1761565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,301 +619,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F0ADE9-3944-F7CD-4C95-DBB1453D584C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1466850" y="771525"/>
-          <a:ext cx="1009650" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3517CC9F-D66E-4A12-9220-1343B77CCA92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1476375" y="1009650"/>
-          <a:ext cx="1009650" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336F132E-561A-48BE-B1EA-50CEF7650AE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3486150" y="276225"/>
-          <a:ext cx="2057400" cy="1781175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CB5616-B46F-4A89-AC3A-5DD0ADA328FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581025" y="2628900"/>
-          <a:ext cx="2095500" cy="1781175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC821EB-57B0-3FFF-0FD0-BFAC61891C62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2371725" y="1562100"/>
-          <a:ext cx="1085850" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1069,15 +782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>243167</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>108137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>405092</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>89087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1092,8 +805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="790575" y="3419475"/>
-          <a:ext cx="742950" cy="695325"/>
+          <a:off x="825873" y="3402666"/>
+          <a:ext cx="744631" cy="686921"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1325,59 +1038,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBF83DC-D82D-6F6A-C5E1-E926B6A15415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1476375" y="1590675"/>
-          <a:ext cx="38100" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1501,14 +1161,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>162791</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1523,8 +1183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="7343775"/>
-          <a:ext cx="2095500" cy="1781175"/>
+          <a:off x="617393" y="7560252"/>
+          <a:ext cx="2118880" cy="1815812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,13 +1223,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>105335</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1584,8 +1244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7410450"/>
-          <a:ext cx="781050" cy="723900"/>
+          <a:off x="687481" y="7390839"/>
+          <a:ext cx="782731" cy="715496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1829,13 +1489,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>197428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1851,9 +1511,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2600325" y="8515350"/>
-          <a:ext cx="809625" cy="14288"/>
+        <a:xfrm>
+          <a:off x="2631498" y="8683337"/>
+          <a:ext cx="607002" cy="1846118"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3538,6 +3198,354 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A72836-F873-47BB-B772-F6935921A365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="626919" y="242455"/>
+          <a:ext cx="2118880" cy="1811481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13223E5-7A4D-4255-BC04-39409EAE4A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1482436" y="784514"/>
+          <a:ext cx="1025237" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E18CC05-2590-4CA6-B945-5B510F22935C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1491961" y="1026968"/>
+          <a:ext cx="1025237" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFB4FB1-94A0-47DA-8CAA-40CD38992D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3227294" y="8793562"/>
+          <a:ext cx="938238" cy="2860556"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CB485B-465C-46CE-9BD4-F6383040896F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3496235" y="273424"/>
+          <a:ext cx="2017619" cy="1761564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763329CA-216A-4F7C-9322-A3CF1FD29B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067735" y="11665324"/>
+          <a:ext cx="1684244" cy="17929"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3914,10 +3922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003CC554-43DD-4508-9379-149A6FD8B818}">
-  <dimension ref="B1:AD34"/>
+  <dimension ref="B1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3930,41 +3938,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="4"/>
@@ -3978,32 +3971,19 @@
       <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
       <c r="N6" t="s">
         <v>14</v>
       </c>
@@ -4011,25 +3991,12 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="7"/>
@@ -4042,46 +4009,41 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB9" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" t="s">
-        <v>35</v>
-      </c>
       <c r="AB11" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.4">
       <c r="AB12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.4">
       <c r="N13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB13" s="9" t="s">
         <v>19</v>
@@ -4089,121 +4051,180 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.4">
       <c r="N14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="S30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>25</v>
       </c>
+      <c r="K33" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
         <v>22</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="K51" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/設計/ワイヤーフレーム.xlsx
+++ b/設計/ワイヤーフレーム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D705875-9CE5-4331-9074-339D3C9E0E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45669BE6-4E51-4458-8DBD-8101AA4F5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="300" windowWidth="14655" windowHeight="10545" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
+    <workbookView xWindow="6375" yWindow="555" windowWidth="14325" windowHeight="10530" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>フリマサイト『谷畑屋』</t>
     <rPh sb="7" eb="9">
@@ -358,6 +358,10 @@
     <rPh sb="0" eb="3">
       <t>ヘンシュウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -562,13 +566,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -623,13 +627,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -704,13 +708,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -781,13 +785,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>243167</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>108137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>405092</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>89087</xdr:rowOff>
@@ -842,13 +846,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -907,13 +911,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -968,13 +972,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -1037,13 +1041,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1090,13 +1094,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1159,13 +1163,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>44161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>162791</xdr:rowOff>
@@ -1220,13 +1224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>105335</xdr:rowOff>
@@ -1289,13 +1293,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1356,13 +1360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1417,13 +1421,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1486,13 +1490,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>197428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>294409</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>103910</xdr:rowOff>
@@ -1541,13 +1545,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1606,13 +1610,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1667,13 +1671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1734,13 +1738,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1800,13 +1804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1853,13 +1857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1906,13 +1910,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1959,13 +1963,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2020,13 +2024,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2087,13 +2091,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -2160,13 +2164,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -2225,13 +2229,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -2286,13 +2290,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2355,13 +2359,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -2424,13 +2428,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -2485,13 +2489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2554,13 +2558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -2623,13 +2627,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2676,13 +2680,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2729,13 +2733,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -2795,13 +2799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2856,13 +2860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2925,13 +2929,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2991,13 +2995,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -3044,13 +3048,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>44963</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>108264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>529495</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133942</xdr:rowOff>
@@ -3105,13 +3109,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>338612</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>83315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1004145</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>149989</xdr:rowOff>
@@ -3202,13 +3206,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3263,13 +3267,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -3323,13 +3327,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -3383,13 +3387,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
@@ -3436,13 +3440,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3497,13 +3501,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3922,314 +3926,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003CC554-43DD-4508-9379-149A6FD8B818}">
-  <dimension ref="B1:AD51"/>
+  <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
-    <col min="28" max="28" width="16.875" customWidth="1"/>
-    <col min="29" max="29" width="2.75" customWidth="1"/>
-    <col min="30" max="30" width="7.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="30" max="30" width="16.875" customWidth="1"/>
+    <col min="31" max="31" width="2.75" customWidth="1"/>
+    <col min="32" max="32" width="7.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="L1" t="s">
+    <row r="1" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="U2" t="s">
+    <row r="2" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="N3" t="s">
+    <row r="3" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="N4" t="s">
+    <row r="4" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="P4" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="N5" t="s">
+    <row r="5" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="P5" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="10" t="s">
+      <c r="W5" s="1"/>
+      <c r="X5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="N6" t="s">
+    <row r="6" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="P6" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="W6" s="1"/>
       <c r="X6" s="10"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="N7" t="s">
+    <row r="7" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="AB9" s="9" t="s">
+    <row r="9" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="AD9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="AB10" s="9" t="s">
+    <row r="10" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="AD10" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="11" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="9" t="s">
+      <c r="AD11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="AB12" s="9" t="s">
+    <row r="12" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="AD12" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="N13" t="s">
+    <row r="13" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="P13" t="s">
         <v>20</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>20</v>
       </c>
-      <c r="AB13" s="9" t="s">
+      <c r="AD13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="N14" t="s">
+    <row r="14" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="P14" t="s">
         <v>21</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>21</v>
       </c>
-      <c r="AB14" s="9" t="s">
+      <c r="AD14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="N17" t="s">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="P17" t="s">
         <v>20</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="N18" t="s">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="P18" t="s">
         <v>21</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="D23" t="s">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="D24" t="s">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="S25" t="s">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="S26" t="s">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
         <v>20</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="F28" t="s">
         <v>21</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="S29" t="s">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="S30" t="s">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
         <v>20</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="E44" t="s">
+    <row r="44" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="G44" t="s">
         <v>18</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="F46" t="s">
+    <row r="46" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="H46" t="s">
         <v>17</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M46" t="s">
         <v>11</v>
       </c>
-      <c r="M46" t="s">
+      <c r="O46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="F47" t="s">
+    <row r="47" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="H47" t="s">
         <v>8</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="F48" t="s">
+    <row r="48" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="H48" t="s">
         <v>9</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.4">
-      <c r="K49" t="s">
+    <row r="49" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="M49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.4">
-      <c r="F50" t="s">
+    <row r="50" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="H50" t="s">
         <v>7</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>10</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.4">
-      <c r="K51" t="s">
+    <row r="51" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="M51" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="X5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計/ワイヤーフレーム.xlsx
+++ b/設計/ワイヤーフレーム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45669BE6-4E51-4458-8DBD-8101AA4F5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43606FE-688A-4619-A1D8-E4BC01FECFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="555" windowWidth="14325" windowHeight="10530" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>フリマサイト『谷畑屋』</t>
     <rPh sb="7" eb="9">
@@ -129,16 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表紙画面/top</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録画面/sign up</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
@@ -167,13 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入画面/Order page</t>
-    <rPh sb="0" eb="4">
-      <t>コウニュウガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>配送先</t>
     <rPh sb="0" eb="2">
       <t>ハイソウ</t>
@@ -201,13 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入完了/Thank you page</t>
-    <rPh sb="0" eb="4">
-      <t>コウニュウカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>から買いました</t>
     <rPh sb="2" eb="3">
       <t>カ</t>
@@ -215,13 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー情報/User</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -237,7 +206,146 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出品一覧/sell List</t>
+    <t>商品説明</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント情報/Account Info</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト/logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出品/List</t>
+    <rPh sb="0" eb="2">
+      <t>シュッピン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入/buy</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷畑屋</t>
+    <rPh sb="0" eb="3">
+      <t>タニハタヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集時はPOST</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンシュウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面/register.html</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面/login.html</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後/index.html</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧/List.html</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入完了/success.html</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品詳細/item.html</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入画面/purchase.html</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報/User.html</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出品一覧/List.html</t>
     <rPh sb="0" eb="2">
       <t>シュッピン</t>
     </rPh>
@@ -247,121 +355,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入一覧/buy List</t>
+    <t>購入一覧/List.html</t>
     <rPh sb="0" eb="4">
       <t>コウニュウイチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品の新規登録/List an Item</t>
+    <t>商品の新規登録/add_ittem.html</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
     <rPh sb="3" eb="7">
       <t>シンキトウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品説明</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンセツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Details</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品詳細/Product  details page</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヘッダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リスト表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント情報/Account Info</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト/logout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出品/List</t>
-    <rPh sb="0" eb="2">
-      <t>シュッピン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入/buy</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>谷畑屋</t>
-    <rPh sb="0" eb="3">
-      <t>タニハタヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品一覧/products</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン後/</t>
-    <rPh sb="4" eb="5">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集時はPOST</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンシュウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3928,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003CC554-43DD-4508-9379-149A6FD8B818}">
   <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3943,25 +3950,25 @@
   <sheetData>
     <row r="1" spans="4:32" x14ac:dyDescent="0.4">
       <c r="N1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="4:32" x14ac:dyDescent="0.4">
       <c r="W2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="4:32" x14ac:dyDescent="0.4">
       <c r="P3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="4:32" x14ac:dyDescent="0.4">
       <c r="P4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="4"/>
@@ -3980,7 +3987,7 @@
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
@@ -4000,7 +4007,7 @@
     </row>
     <row r="7" spans="4:32" x14ac:dyDescent="0.4">
       <c r="P7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="7"/>
@@ -4015,175 +4022,175 @@
     </row>
     <row r="9" spans="4:32" x14ac:dyDescent="0.4">
       <c r="AD9" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="4:32" x14ac:dyDescent="0.4">
       <c r="AD10" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="4:32" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="4:32" x14ac:dyDescent="0.4">
       <c r="AD12" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="4:32" x14ac:dyDescent="0.4">
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="4:32" x14ac:dyDescent="0.4">
       <c r="P14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.4">
       <c r="P17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.4">
       <c r="P18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S23" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.4">
       <c r="U25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.4">
       <c r="U26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.4">
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.4">
       <c r="U29" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.4">
       <c r="U30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="6:17" x14ac:dyDescent="0.4">
       <c r="F33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.4">
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="6:17" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M44" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.4">
@@ -4202,7 +4209,7 @@
         <v>8</v>
       </c>
       <c r="Q47" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="6:17" x14ac:dyDescent="0.4">

--- a/設計/ワイヤーフレーム.xlsx
+++ b/設計/ワイヤーフレーム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43606FE-688A-4619-A1D8-E4BC01FECFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953719EF-5BF0-46F8-84C8-05366BE4E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>フリマサイト『谷畑屋』</t>
     <rPh sb="7" eb="9">
@@ -368,6 +368,23 @@
     </rPh>
     <rPh sb="3" eb="7">
       <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成途中</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成ページ</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -401,12 +418,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -518,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +580,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3935,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003CC554-43DD-4508-9379-149A6FD8B818}">
   <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3959,6 +3994,10 @@
       </c>
     </row>
     <row r="3" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="12"/>
       <c r="P3" t="s">
         <v>26</v>
       </c>
@@ -3967,6 +4006,10 @@
       </c>
     </row>
     <row r="4" spans="4:32" x14ac:dyDescent="0.4">
+      <c r="D4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="P4" t="s">
         <v>27</v>
       </c>
@@ -4031,15 +4074,24 @@
       </c>
     </row>
     <row r="11" spans="4:32" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N11" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="N11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="S11" t="s">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="S11" s="11" t="s">
         <v>52</v>
       </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
       <c r="AD11" s="9" t="s">
         <v>38</v>
       </c>
@@ -4071,7 +4123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
       <c r="P17" t="s">
         <v>19</v>
       </c>
@@ -4079,7 +4131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
       <c r="P18" t="s">
         <v>20</v>
       </c>
@@ -4087,15 +4139,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="D21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I21" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -4105,26 +4163,30 @@
       <c r="K23" t="s">
         <v>25</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
       <c r="U25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
       <c r="U26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
         <v>19</v>
       </c>
@@ -4132,7 +4194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
       <c r="F28" t="s">
         <v>20</v>
       </c>
@@ -4140,17 +4202,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
       <c r="U29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
       <c r="U30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>48</v>
       </c>
@@ -4158,7 +4220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
         <v>19</v>
       </c>
@@ -4186,9 +4248,12 @@
       </c>
     </row>
     <row r="44" spans="6:17" x14ac:dyDescent="0.4">
-      <c r="G44" t="s">
+      <c r="G44" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
       <c r="M44" t="s">
         <v>43</v>
       </c>

--- a/設計/ワイヤーフレーム.xlsx
+++ b/設計/ワイヤーフレーム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030921\Documents\GitHub\Tanihataya\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953719EF-5BF0-46F8-84C8-05366BE4E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179253BB-6389-4D51-956F-C4B8A4B9BDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7DDB55C-60E7-4037-B58D-1CD4495330C5}"/>
   </bookViews>
@@ -418,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,13 +584,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1535,13 +1544,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>197428</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>193862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1557,9 +1566,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2631498" y="8683337"/>
-          <a:ext cx="607002" cy="1846118"/>
+        <a:xfrm flipV="1">
+          <a:off x="3772460" y="8426824"/>
+          <a:ext cx="765922" cy="3362"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3425,59 +3434,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFB4FB1-94A0-47DA-8CAA-40CD38992D9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3227294" y="8793562"/>
-          <a:ext cx="938238" cy="2860556"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3970,8 +3926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003CC554-43DD-4508-9379-149A6FD8B818}">
   <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3994,10 +3950,10 @@
       </c>
     </row>
     <row r="3" spans="4:32" x14ac:dyDescent="0.4">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
       <c r="P3" t="s">
         <v>26</v>
       </c>
@@ -4006,10 +3962,10 @@
       </c>
     </row>
     <row r="4" spans="4:32" x14ac:dyDescent="0.4">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
       <c r="P4" t="s">
         <v>27</v>
       </c>
@@ -4029,11 +3985,11 @@
         <v>13</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
     </row>
@@ -4042,9 +3998,9 @@
         <v>14</v>
       </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
     </row>
@@ -4074,24 +4030,24 @@
       </c>
     </row>
     <row r="11" spans="4:32" x14ac:dyDescent="0.4">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="N11" s="11" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="S11" s="11" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="S11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
       <c r="AD11" s="9" t="s">
         <v>38</v>
       </c>
@@ -4140,18 +4096,18 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="12" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
@@ -4163,13 +4119,13 @@
       <c r="K23" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="S23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
@@ -4216,9 +4172,13 @@
       <c r="D31" t="s">
         <v>48</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
@@ -4248,15 +4208,18 @@
       </c>
     </row>
     <row r="44" spans="6:17" x14ac:dyDescent="0.4">
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="M44" t="s">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="M44" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.4">
       <c r="H46" t="s">
